--- a/src/test/java/recurces/Baskent.xlsx
+++ b/src/test/java/recurces/Baskent.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\IdeaProjects\testNG2022\src\test\java\recurces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F6D583-492D-4775-A256-75E17C679C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720FB79-BC89-453B-8B35-A53F48C97D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="525" windowWidth="12330" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="360" windowWidth="12330" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Ulke</t>
   </si>
@@ -91,12 +91,22 @@
   </si>
   <si>
     <t>Ankara</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>250000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -423,6 +433,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -431,6 +444,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -439,6 +455,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -446,6 +465,9 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>540000.0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
